--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
-    <sheet name="MIssileWarhead" sheetId="3" r:id="rId2"/>
+    <sheet name="MissileWarhead" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -625,7 +625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
@@ -114,14 +114,6 @@
   </si>
   <si>
     <t>이 미사일 탄두는
-본래 미사일의 목적인 장거리의 적 타격에 더불어,
-뛰어난 화력을 위해 개발되었습니다
-다른 탄두에 비해서 강력한 화력을 가지고 있습니다.
-하지만 다른 기능은 가지지 않습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 미사일 탄두는
 1단계 고화력 탄두의
 연장선상에서 개발된 탄두입니다.
 다른 탄두에 비해서 상당히 강력한 화력을 가지고 있습니다.
@@ -274,6 +266,14 @@
   </si>
   <si>
     <t>매우 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 상당히 늘었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 미사일 탄두는
+본래 미사일의 목적인 장거리의 적 타격에 더불어,
+뛰어난 화력을 위해 개발되었습니다
+다른 탄두에 비해서 강력한 화력을 가지고 있습니다.
+하지만 다른 기능은 가지지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -683,10 +683,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,10 +703,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,10 +723,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>9</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>11</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -792,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -870,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -916,7 +916,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -985,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -993,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1008,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -1016,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1031,7 +1031,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1054,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -626,7 +626,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>49</v>
@@ -692,7 +692,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -712,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -732,7 +732,7 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -752,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>53</v>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -689,7 +689,7 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -709,7 +709,7 @@
         <v>41</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>43</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,7 +838,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -907,7 +907,7 @@
         <v>7</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>45</v>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>60</v>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -62,9 +62,6 @@
     <t>WideContinuousTypeWarhead</t>
   </si>
   <si>
-    <t>DamageContinousTypeWarhead</t>
-  </si>
-  <si>
     <t>HellFireTypeWarhead</t>
   </si>
   <si>
@@ -198,82 +195,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MakingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commonEngine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier1Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier2Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier3Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier4Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 엔진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4단계 엔진</t>
+  </si>
+  <si>
+    <t>5단계 엔진</t>
+  </si>
+  <si>
+    <t>일반적인 로켓 엔진입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 다소 늘었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 더 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 더 늘었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 조금 늘었습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 상당히 늘었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 미사일 탄두는
+본래 미사일의 목적인 장거리의 적 타격에 더불어,
+뛰어난 화력을 위해 개발되었습니다
+다른 탄두에 비해서 강력한 화력을 가지고 있습니다.
+하지만 다른 기능은 가지지 않습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WideDamageTypeWarhead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이 미사일 탄두는
 최신예 탄두 기술의 집합체라고 할 수 있습니다.
 최대한 적에게 많은 피해를 입히고자 
 모든 탄두 기술을 끌어모아 탄생했습니다.
 타격지점에 2턴 동안 생산력 2 감소를 부여하고,
 뿐만 아니라 주변 5타일에 추가 타격 및 2턴 동안 생산력 2 감소를 부여합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MakingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commonEngine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier1Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier2Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier3Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tier4Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반 엔진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 엔진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단계 엔진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4단계 엔진</t>
-  </si>
-  <si>
-    <t>5단계 엔진</t>
-  </si>
-  <si>
-    <t>일반적인 로켓 엔진입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 다소 늘었습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 더 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 더 늘었습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 조금 늘었습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매우 발전된 형태의 로켓 엔진입니다. 감당 가능한 무게가 상당히 늘었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 미사일 탄두는
-본래 미사일의 목적인 장거리의 적 타격에 더불어,
-뛰어난 화력을 위해 개발되었습니다
-다른 탄두에 비해서 강력한 화력을 가지고 있습니다.
-하지만 다른 기능은 가지지 않습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +627,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -643,16 +644,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -663,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -675,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -683,10 +684,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -695,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -703,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -715,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -723,10 +724,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -735,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -743,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -755,7 +756,7 @@
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -768,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,19 +787,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -809,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -824,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -832,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -841,13 +842,13 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -855,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -870,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -878,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -893,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -901,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
@@ -916,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -924,7 +925,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -939,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -947,7 +948,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -962,7 +963,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -970,7 +971,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -985,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -993,7 +994,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1008,7 +1009,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
@@ -1016,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1031,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
@@ -1039,10 +1040,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>13</v>
@@ -1054,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
     <sheet name="MissileWarhead" sheetId="3" r:id="rId2"/>
+    <sheet name="Material" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,6 +276,87 @@
 모든 탄두 기술을 끌어모아 탄생했습니다.
 타격지점에 2턴 동안 생산력 2 감소를 부여하고,
 뿐만 아니라 주변 5타일에 추가 타격 및 2턴 동안 생산력 2 감소를 부여합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄 합금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테인리스 스틸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알루미늄 합금은 구리보다는 3배 이상, 철보다는 2.9배 
+가벼운 무게를 가지고 있는 알루미늄을 활용한 합금 소재입니다.
+미사일의 주 재료로 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테인리스 스틸은
+'녹이 슬지 않는 철' 이라는 이름처럼,
+녹이 슬지 않고, 강철의 특성을 지니고 있으며
+상당히 경제적인 재료입니다.
+미사일의 주 재료로 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티타늄 합금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aluminum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titanium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stainless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티타늄 합금은
+단단하기로 유명한 티타늄을 주 재료로 사용한 합금 소재입니다.
+튼튼하고 경제력 있는 합금입니다.
+미사일의 주 재료로 사용합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소 섬유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">탄소 섬유는
+탄소 섬유만으로는 사용되지 않지만,
+여태까지 개발해온 소재들에 비해 훨씬 비싸고 강한 소재입니다.
+여태껏 개발된 합금들을 응용해서
+미사일의 주 재료로 활용됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -769,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1062,4 +1144,128 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="50.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
     <sheet name="MissileWarhead" sheetId="3" r:id="rId2"/>
-    <sheet name="Material" sheetId="4" r:id="rId3"/>
+    <sheet name="Body" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,91 +280,82 @@
   </si>
   <si>
     <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알루미늄 합금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테인리스 스틸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makingTime</t>
+  </si>
+  <si>
+    <t>moreRange</t>
   </si>
   <si>
     <t>info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알루미늄 합금은 구리보다는 3배 이상, 철보다는 2.9배 
-가벼운 무게를 가지고 있는 알루미늄을 활용한 합금 소재입니다.
-미사일의 주 재료로 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테인리스 스틸은
-'녹이 슬지 않는 철' 이라는 이름처럼,
-녹이 슬지 않고, 강철의 특성을 지니고 있으며
-상당히 경제적인 재료입니다.
-미사일의 주 재료로 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티타늄 합금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aluminum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Titanium</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stainless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>티타늄 합금은
-단단하기로 유명한 티타늄을 주 재료로 사용한 합금 소재입니다.
-튼튼하고 경제력 있는 합금입니다.
-미사일의 주 재료로 사용합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탄소 섬유</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">탄소 섬유는
-탄소 섬유만으로는 사용되지 않지만,
-여태까지 개발해온 소재들에 비해 훨씬 비싸고 강한 소재입니다.
-여태껏 개발된 합금들을 응용해서
-미사일의 주 재료로 활용됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>makingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carbon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>moreRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적 선체</t>
+  </si>
+  <si>
+    <t>Origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초적 날개형 선체</t>
+  </si>
+  <si>
+    <t>Wing1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발전된 날개형 선체</t>
+  </si>
+  <si>
+    <t>유체역학의 발전에 따라.
+기본적인 이론에 빗대어 설계되었던 날개형 선체에
+개선된 설계안을 적용하여 
+더욱 정확성을 향상한 선체입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>초경량 날개형 선체</t>
+  </si>
+  <si>
+    <t>Final</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 전쟁에 사용되었던 기초적인 선체입니다.
+기초적인 유체역학에 의해서 설계되었으며,
+효율적이지는 않지만 목표를 향해 날라가긴 할 것입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 사용되었던 기본적인 선체에,
+아주 조금의 유체역학을 더해서 설계된 선체입니다.
+날개가 생겨 조금 더 정확성이 향상되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wing2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한의 명중률과 효율을 위해,
+실험실에서만 사용되던 실험적인 방식으로 제작된 선체입니다.
+최신예 기술로 만들어진 이 선체는
+최상의 정확성과 효율을 보장합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +369,20 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -400,9 +405,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -852,7 +862,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1151,7 +1161,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1164,103 +1174,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3">
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4">
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5">
+      <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>68</v>
+      <c r="F5" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
 최신예 기술로 만들어진 이 선체는
 최상의 정확성과 효율을 보장합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -716,22 +720,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="64.375" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="4" max="5" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="64.375" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -745,13 +749,16 @@
         <v>36</v>
       </c>
       <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -765,13 +772,16 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -785,13 +795,16 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -805,13 +818,16 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -825,13 +841,16 @@
         <v>4</v>
       </c>
       <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -845,9 +864,12 @@
         <v>5</v>
       </c>
       <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -859,10 +881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -870,11 +892,11 @@
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="133.25" customWidth="1"/>
+    <col min="5" max="6" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="133.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -891,13 +913,16 @@
         <v>13</v>
       </c>
       <c r="F1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -916,11 +941,14 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -939,11 +967,14 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -962,11 +993,14 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -985,11 +1019,14 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1008,11 +1045,14 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1031,11 +1071,14 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1054,11 +1097,14 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1077,11 +1123,14 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1100,11 +1149,14 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1123,11 +1175,14 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="99" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1146,7 +1201,10 @@
       <c r="F12">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1160,7 +1218,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>

--- a/HexTileGame/Assets/Data/GameData/Missiles.xlsx
+++ b/HexTileGame/Assets/Data/GameData/Missiles.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MissileEngine" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -349,6 +349,10 @@
 최신예 기술로 만들어진 이 선체는
 최상의 정확성과 효율을 보장합니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>price</t>
@@ -722,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -883,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1216,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1228,10 +1232,11 @@
     <col min="3" max="3" width="15.375" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
-    <col min="6" max="6" width="50.875" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="51.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1248,10 +1253,13 @@
         <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1267,11 +1275,14 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1287,11 +1298,14 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1307,11 +1321,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1327,7 +1344,10 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>72</v>
       </c>
     </row>
